--- a/src/data/people.xlsx
+++ b/src/data/people.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnparkinson/Documents/vscode/whitestation70/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linda/Documents/visual studio code/whitestation70/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F21A95-E490-384A-AFBF-8D4304D04842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E280FA-1A61-D04C-B2AE-C42100F58EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="460" windowWidth="31680" windowHeight="26660" xr2:uid="{92866A54-9C24-8A40-BEA8-C481FFAF6357}"/>
   </bookViews>
@@ -5335,8 +5335,8 @@
   <dimension ref="A1:L482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7607,9 +7607,7 @@
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="J143" s="14"/>
       <c r="K143" s="23"/>
     </row>
     <row r="144" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
